--- a/resources/GIL1/notes.xlsx
+++ b/resources/GIL1/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\GIL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69710262-64DD-452A-B196-F25B9FCA406D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5D2A1-48DF-4F06-A4FE-572C8DDF1535}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>CNE</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>Stert</t>
-  </si>
-  <si>
-    <t>MOY</t>
   </si>
   <si>
     <t>Note_GIL11</t>
@@ -700,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,10 +709,9 @@
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,46 +722,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>105</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>106</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>107</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="O1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>142</v>
       </c>
@@ -811,12 +804,8 @@
       <c r="O2" s="1">
         <v>12</v>
       </c>
-      <c r="P2" s="1">
-        <f>AVERAGE(D2:O2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>143</v>
       </c>
@@ -862,12 +851,8 @@
       <c r="O3" s="1">
         <v>12</v>
       </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P48" si="0">AVERAGE(D3:O3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>144</v>
       </c>
@@ -913,12 +898,8 @@
       <c r="O4" s="1">
         <v>12</v>
       </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>145</v>
       </c>
@@ -964,12 +945,8 @@
       <c r="O5" s="1">
         <v>12</v>
       </c>
-      <c r="P5" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>146</v>
       </c>
@@ -1015,12 +992,8 @@
       <c r="O6" s="1">
         <v>12</v>
       </c>
-      <c r="P6" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>147</v>
       </c>
@@ -1066,12 +1039,8 @@
       <c r="O7" s="1">
         <v>12</v>
       </c>
-      <c r="P7" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>148</v>
       </c>
@@ -1117,12 +1086,8 @@
       <c r="O8" s="1">
         <v>12</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>149</v>
       </c>
@@ -1168,12 +1133,8 @@
       <c r="O9" s="1">
         <v>12</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>150</v>
       </c>
@@ -1219,12 +1180,8 @@
       <c r="O10" s="1">
         <v>12</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>151</v>
       </c>
@@ -1270,12 +1227,8 @@
       <c r="O11" s="1">
         <v>12</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>152</v>
       </c>
@@ -1321,12 +1274,8 @@
       <c r="O12" s="1">
         <v>12</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>153</v>
       </c>
@@ -1372,12 +1321,8 @@
       <c r="O13" s="1">
         <v>12</v>
       </c>
-      <c r="P13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>154</v>
       </c>
@@ -1423,12 +1368,8 @@
       <c r="O14" s="1">
         <v>12</v>
       </c>
-      <c r="P14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>155</v>
       </c>
@@ -1474,12 +1415,8 @@
       <c r="O15" s="1">
         <v>12</v>
       </c>
-      <c r="P15" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>156</v>
       </c>
@@ -1525,12 +1462,8 @@
       <c r="O16" s="1">
         <v>12</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>157</v>
       </c>
@@ -1576,12 +1509,8 @@
       <c r="O17" s="1">
         <v>12</v>
       </c>
-      <c r="P17" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>158</v>
       </c>
@@ -1627,12 +1556,8 @@
       <c r="O18" s="1">
         <v>12</v>
       </c>
-      <c r="P18" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>159</v>
       </c>
@@ -1678,12 +1603,8 @@
       <c r="O19" s="1">
         <v>12</v>
       </c>
-      <c r="P19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>160</v>
       </c>
@@ -1729,12 +1650,8 @@
       <c r="O20" s="1">
         <v>12</v>
       </c>
-      <c r="P20" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>161</v>
       </c>
@@ -1780,12 +1697,8 @@
       <c r="O21" s="1">
         <v>12</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>162</v>
       </c>
@@ -1831,12 +1744,8 @@
       <c r="O22" s="1">
         <v>12</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>163</v>
       </c>
@@ -1882,12 +1791,8 @@
       <c r="O23" s="1">
         <v>12</v>
       </c>
-      <c r="P23" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>164</v>
       </c>
@@ -1933,12 +1838,8 @@
       <c r="O24" s="1">
         <v>12</v>
       </c>
-      <c r="P24" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>165</v>
       </c>
@@ -1984,12 +1885,8 @@
       <c r="O25" s="1">
         <v>12</v>
       </c>
-      <c r="P25" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>166</v>
       </c>
@@ -2035,12 +1932,8 @@
       <c r="O26" s="1">
         <v>12</v>
       </c>
-      <c r="P26" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>167</v>
       </c>
@@ -2086,12 +1979,8 @@
       <c r="O27" s="1">
         <v>12</v>
       </c>
-      <c r="P27" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>168</v>
       </c>
@@ -2137,12 +2026,8 @@
       <c r="O28" s="1">
         <v>12</v>
       </c>
-      <c r="P28" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>169</v>
       </c>
@@ -2188,12 +2073,8 @@
       <c r="O29" s="1">
         <v>12</v>
       </c>
-      <c r="P29" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>170</v>
       </c>
@@ -2239,12 +2120,8 @@
       <c r="O30" s="1">
         <v>12</v>
       </c>
-      <c r="P30" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>171</v>
       </c>
@@ -2290,12 +2167,8 @@
       <c r="O31" s="1">
         <v>12</v>
       </c>
-      <c r="P31" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>172</v>
       </c>
@@ -2341,12 +2214,8 @@
       <c r="O32" s="1">
         <v>12</v>
       </c>
-      <c r="P32" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>173</v>
       </c>
@@ -2392,12 +2261,8 @@
       <c r="O33" s="1">
         <v>12</v>
       </c>
-      <c r="P33" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>174</v>
       </c>
@@ -2443,12 +2308,8 @@
       <c r="O34" s="1">
         <v>12</v>
       </c>
-      <c r="P34" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>175</v>
       </c>
@@ -2494,12 +2355,8 @@
       <c r="O35" s="1">
         <v>12</v>
       </c>
-      <c r="P35" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>176</v>
       </c>
@@ -2545,12 +2402,8 @@
       <c r="O36" s="1">
         <v>12</v>
       </c>
-      <c r="P36" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>177</v>
       </c>
@@ -2596,12 +2449,8 @@
       <c r="O37" s="1">
         <v>12</v>
       </c>
-      <c r="P37" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>178</v>
       </c>
@@ -2647,12 +2496,8 @@
       <c r="O38" s="1">
         <v>12</v>
       </c>
-      <c r="P38" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>179</v>
       </c>
@@ -2698,12 +2543,8 @@
       <c r="O39" s="1">
         <v>12</v>
       </c>
-      <c r="P39" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>180</v>
       </c>
@@ -2749,12 +2590,8 @@
       <c r="O40" s="1">
         <v>12</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>181</v>
       </c>
@@ -2800,12 +2637,8 @@
       <c r="O41" s="1">
         <v>12</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>182</v>
       </c>
@@ -2851,12 +2684,8 @@
       <c r="O42" s="1">
         <v>12</v>
       </c>
-      <c r="P42" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>183</v>
       </c>
@@ -2902,12 +2731,8 @@
       <c r="O43" s="1">
         <v>12</v>
       </c>
-      <c r="P43" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>184</v>
       </c>
@@ -2953,12 +2778,8 @@
       <c r="O44" s="1">
         <v>12</v>
       </c>
-      <c r="P44" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>185</v>
       </c>
@@ -3004,12 +2825,8 @@
       <c r="O45" s="1">
         <v>12</v>
       </c>
-      <c r="P45" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>186</v>
       </c>
@@ -3055,12 +2872,8 @@
       <c r="O46" s="1">
         <v>12</v>
       </c>
-      <c r="P46" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>187</v>
       </c>
@@ -3106,12 +2919,8 @@
       <c r="O47" s="1">
         <v>12</v>
       </c>
-      <c r="P47" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>188</v>
       </c>
@@ -3155,10 +2964,6 @@
         <v>12</v>
       </c>
       <c r="O48" s="1">
-        <v>12</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
